--- a/data/trans_camb/P12A1_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_3_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-27,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-71,7; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 35,85</t>
+          <t>0,0; 19,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 33,86</t>
+          <t>0,0; 28,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 2,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 17,88</t>
+          <t>0,0; 11,39</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,13</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 12,57</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-22,71%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-78,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,62%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,82</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,89</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,88</t>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 38,58</t>
+          <t>-3,07; 10,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 19,68</t>
+          <t>-7,04; 4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-79,14; 81,26</t>
+          <t>-10,39; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,41; 55,55</t>
+          <t>-9,71; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 30,71</t>
+          <t>-3,84; 8,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 17,7</t>
+          <t>-5,96; 3,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 4,87</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 4,91</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 0,77</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>117,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-52,36%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,3%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,3%</t>
+          <t>-17,26%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42,2%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-64,75%</t>
         </is>
       </c>
     </row>
@@ -886,17 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,69; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,32; 205,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,96; 149,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,35</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,2</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,83</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,67</t>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 57,95</t>
+          <t>-3,32; 5,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-61,01; 41,12</t>
+          <t>-3,3; 8,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 21,42</t>
+          <t>-4,89; 2,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 12,97</t>
+          <t>-7,86; -0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 19,73</t>
+          <t>-7,86; -0,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 8,66</t>
+          <t>-5,39; 2,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 0,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 1,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 2,31</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-54,65%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,69%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-55,4%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-57,55%</t>
+          <t>-34,86%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-72,13%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-63,95%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-29,47%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,21; 154,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 65,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 696,9</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 35,63</t>
+          <t>-3,97; 8,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 34,89</t>
+          <t>-5,14; 5,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 22,93</t>
+          <t>-6,38; 2,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 29,99</t>
+          <t>-4,51; 7,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 19,53</t>
+          <t>-4,78; 6,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 23,94</t>
+          <t>-4,97; 5,4</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 5,92</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 3,94</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 3,03</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-49,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52,29%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-15,79%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,16; 376,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,15; 395,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 118,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,58; 158,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 93,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 123,45</t>
+          <t>-88,39; 447,02</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-52,08; 520,87</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-74,38; 353,08</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-76,18; 244,56</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,24</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,27</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 33,79</t>
+          <t>-9,23; 17,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 45,97</t>
+          <t>-9,49; 15,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 24,6</t>
+          <t>-0,79; 28,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 22,32</t>
+          <t>-15,35; 9,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 27,43</t>
+          <t>-15,42; 9,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 30,55</t>
+          <t>-13,23; 11,64</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 10,59</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,3; 9,63</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 16,54</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>103,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,49%</t>
+          <t>-20,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>-24,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>55,31%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 137,42</t>
+          <t>-45,99; 228,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 189,13</t>
+          <t>-51,77; 191,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 42,07</t>
+          <t>-13,78; 354,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 37,01</t>
+          <t>-81,52; 171,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 65,5</t>
+          <t>-83,14; 204,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 71,97</t>
+          <t>-71,53; 188,32</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-44,75; 119,25</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-48,85; 111,29</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-22,37; 188,3</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-14,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-7,67</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 15,58</t>
+          <t>-14,02; 17,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 28,16</t>
+          <t>-14,96; 16,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 23,55</t>
+          <t>-8,26; 26,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 17,38</t>
+          <t>-22,53; 8,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 15,99</t>
+          <t>-30,35; -2,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 12,81</t>
+          <t>-17,14; 19,68</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-14,04; 9,12</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-17,87; 2,49</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 16,25</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>-33,73%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>-78,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-17,12%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-48,72%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>25,59%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 19,92</t>
+          <t>-76,6; 274,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 39,54</t>
+          <t>-77,72; 333,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 34,02</t>
+          <t>-48,8; 512,51</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 22,96</t>
+          <t>-81,84; 139,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 20,62</t>
+          <t>-100,0; 30,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 16,28</t>
+          <t>-63,62; 243,97</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-64,28; 102,62</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-81,32; 40,24</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-44,72; 161,92</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 12,49</t>
+          <t>-2,19; 5,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 14,97</t>
+          <t>-2,42; 4,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 23,54</t>
+          <t>-0,42; 7,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 9,83</t>
+          <t>-5,34; 1,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 14,16</t>
+          <t>-5,91; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 7,08</t>
+          <t>-2,86; 5,11</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 2,14</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 1,4</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,93</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>-34,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>-46,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-14,99%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>39,77%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 40,67</t>
+          <t>-30,25; 155,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 46,27</t>
+          <t>-36,14; 136,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 54,28</t>
+          <t>-9,98; 198,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 22,36</t>
+          <t>-70,06; 30,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 36,01</t>
+          <t>-75,38; 9,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 18,41</t>
+          <t>-37,94; 119,7</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-38,79; 52,5</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-47,09; 34,98</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 122,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
